--- a/agents/Linfantum/Linfantum-Data-Contents.xlsx
+++ b/agents/Linfantum/Linfantum-Data-Contents.xlsx
@@ -51,16 +51,16 @@
     <t xml:space="preserve">sub-title</t>
   </si>
   <si>
-    <t xml:space="preserve">Based on official disease reports to the OIE</t>
+    <t xml:space="preserve">Based on official disease reports to the WOAH</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">Leishmaniasis is a disease listed in the World Organisation for Animal Health ({ref005:OIE}) Terrestrial Animal Health Code. The map to the right displays occurrence reported to the {ref001:OIE-WAHIS} system since 2005.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As described in the OIE {ref005:Terrestrial Animal Health Code}, the OIE early warning system includes immediate notifications and follow-up reports on:</t>
+    <t xml:space="preserve">Leishmaniasis is a disease listed in the World Organisation for Animal Health ({ref005:WOAH}) Terrestrial Animal Health Code. The map to the right displays occurrence reported to the {ref001:WOAH-WAHIS} system since 2005.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As described in the WOAH {ref005:Terrestrial Animal Health Code}, the WOAH early warning system includes immediate notifications and follow-up reports on:</t>
   </si>
   <si>
     <t xml:space="preserve">list</t>
@@ -84,7 +84,7 @@
     <t xml:space="preserve">Occurrence of a listed disease in an unusual host species.</t>
   </si>
   <si>
-    <t xml:space="preserve">Information on stable situations (disease present or absent in a zone or country) is provided by countries through the OIE monitoring system, which is a different reporting channel. This information is available in a different spatial and temporal scale, which can be browsed on the map independently from the outbreak notification points.</t>
+    <t xml:space="preserve">Information on stable situations (disease present or absent in a zone or country) is provided by countries through the WOAH monitoring system, which is a different reporting channel. This information is available in a different spatial and temporal scale, which can be browsed on the map independently from the outbreak notification points.</t>
   </si>
   <si>
     <t xml:space="preserve">annotation</t>
@@ -96,7 +96,7 @@
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">For more up to date reports, visit the original data source: {ref001:OIE-WAHIS}.</t>
+    <t xml:space="preserve">For more up to date reports, visit the original data source: {ref001:WOAH-WAHIS}.</t>
   </si>
   <si>
     <t xml:space="preserve">map</t>
@@ -246,7 +246,7 @@
     <t xml:space="preserve">Diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE-prescribed tests for international trade include ({ref010:OIE, Terrestrial Manual}):</t>
+    <t xml:space="preserve">WOAH-prescribed tests for international trade include ({ref010:WOAH, Terrestrial Manual}):</t>
   </si>
   <si>
     <t xml:space="preserve">For the detection of the agent (confirmation of clinical cases and individual animal freedom from infection prior to movement): Cytological examination, Histological examination, Isolation in culture and Molecular methods.</t>
@@ -447,7 +447,7 @@
     <t xml:space="preserve">The CoVetLab consortium has been responsible for the systematic literature reviews since 2015, and has delivered story maps to EFSA since 2021. Partners are: Swedish National Veterinary Institute (SVA, Sweden); Wageningen Bioveterinary Research (WBVR, The Netherlands); Animal and Plant Health Agency (APHA; UK) and the University of Surrey (UK). </t>
   </si>
   <si>
-    <t xml:space="preserve">Geographical distribution data has been kindly provided by the World Organisation of Animal Health (OIE). {ref001:OIE-WAHIS} (OIE World Animal Health Information System) is the original source of these data.</t>
+    <t xml:space="preserve">Geographical distribution data has been kindly provided by the World Organisation of Animal Health (WOAH). {ref001:WOAH-WAHIS} (WOAH World Animal Health Information System) is the original source of these data.</t>
   </si>
   <si>
     <t xml:space="preserve">EFSA thanks the following experts for their specific contribution to this story map:</t>
@@ -498,7 +498,7 @@
     <t xml:space="preserve">ref001</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE-WAHIS (OIE World Animal Health Information System)</t>
+    <t xml:space="preserve">WOAH-WAHIS (WOAH World Animal Health Information System)</t>
   </si>
   <si>
     <t xml:space="preserve">https://wahis.oie.int/</t>
@@ -525,7 +525,7 @@
     <t xml:space="preserve">ref005</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. OIE, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. WOAH, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/en/what-we-do/standards/codes-and-manuals/terrestrial-code-online-access/?id=169&amp;L=0&amp;htmfile=chapitre_notification.htm</t>
@@ -558,7 +558,7 @@
     <t xml:space="preserve">ref010</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2021. Leishmaniosis. Chapter 3.1.11. OIE Terrestrial Manual, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2021. Leishmaniosis. Chapter 3.1.11. WOAH Terrestrial Manual, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/fileadmin/Home/eng/Health_standards/tahm/3.01.11_LEISHMANIOSIS.pdf</t>

--- a/agents/Linfantum/Linfantum-Data-Contents.xlsx
+++ b/agents/Linfantum/Linfantum-Data-Contents.xlsx
@@ -225,7 +225,7 @@
     <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
-    <t xml:space="preserve">Survival-Linfantum.html</t>
+    <t xml:space="preserve">PathogenSurvival-Linfantum.html</t>
   </si>
   <si>
     <t xml:space="preserve">Transmission</t>

--- a/agents/Linfantum/Linfantum-Data-Contents.xlsx
+++ b/agents/Linfantum/Linfantum-Data-Contents.xlsx
@@ -363,7 +363,7 @@
     <t xml:space="preserve">EFSA conducts regular systematic literature reviews (SLR) covering all vaccine efficacy studies  published in peer-reviewed literature in English since 1970, when evaluating vaccines approved for use in the European Union. </t>
   </si>
   <si>
-    <t xml:space="preserve">No vaccine efficacy studies meeting the eligibility criteria were found at the time of the latest SLR.  The next update is planned for 2022.</t>
+    <t xml:space="preserve">No vaccine efficacy studies meeting the eligibility criteria were found at the time of the latest SLR.  The next update is planned for 2023.</t>
   </si>
   <si>
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref023:here}, for pathogens which have available vaccines. Data fields are explained in this {ref024:read-me file}.</t>

--- a/agents/Linfantum/Linfantum-Data-Contents.xlsx
+++ b/agents/Linfantum/Linfantum-Data-Contents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DiseaseProfiles\agents\Linfantum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernanda.dorea\Documents\Azure\storymaps\agents\Linfantum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A24105-828D-4619-9B61-7EFA802358E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427B3009-795D-48BB-9128-BED94FF60CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3700" yWindow="7750" windowWidth="7230" windowHeight="3980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1195,13 +1195,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137:D137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>9</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>3</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>5</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>6</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>7</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>8</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>3</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>4</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>5</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>6</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>7</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>8</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>9</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>10</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>11</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>12</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>13</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>14</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>15</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>7</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>8</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>9</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>10</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>11</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>12</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>13</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>14</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>15</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>4</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>6</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>7</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>8</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>9</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>10</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>11</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>5</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>6</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>7</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>8</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>9</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>10</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>11</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>12</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>13</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>14</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>6</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>7</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>8</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>9</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>10</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>11</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>12</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>3</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>4</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>6</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>7</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>8</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>9</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>10</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>3</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>4</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>6</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>7</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>8</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>3</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>6</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>7</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>8</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>9</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>10</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>11</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>12</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>13</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>14</v>
       </c>
@@ -3521,16 +3521,16 @@
         <v>11</v>
       </c>
       <c r="C137">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E137" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>3</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>4</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>5</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>6</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>3</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>4</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>5</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>3</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>4</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>5</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>6</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>7</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>8</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>9</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>10</v>
       </c>
@@ -3933,9 +3933,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>162</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>165</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>168</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>171</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>174</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>177</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>180</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>181</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>182</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>185</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>188</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>191</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>194</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>197</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>200</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>203</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>206</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>209</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>212</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>215</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>218</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>221</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>224</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>227</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>230</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>233</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>236</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>239</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>242</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>245</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>248</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>251</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>254</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>257</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>260</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>263</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>266</v>
       </c>
